--- a/QuizQuestions final.xlsx
+++ b/QuizQuestions final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2024_SR_12IT1\Programming\AS91897QuizGameGUI_ShuklaMahit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C7A25-B7B6-489C-872F-318E4CEBD663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A54A5A-EED2-42DB-864F-61890074071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -71,156 +71,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Simplify: [x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + (2x)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - (3x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 2)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +sin(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>π</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)]</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>How many chambers does a human heart have?</t>
   </si>
   <si>
@@ -257,74 +107,6 @@
     <t>Random Access Mind</t>
   </si>
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +9x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -5</t>
-    </r>
-  </si>
-  <si>
     <t>Tetrahedral</t>
   </si>
   <si>
@@ -371,13 +153,28 @@
   </si>
   <si>
     <t>Haematopoiesis</t>
+  </si>
+  <si>
+    <t>Which gland releases the Growth Hormone?</t>
+  </si>
+  <si>
+    <t>Pineal gland</t>
+  </si>
+  <si>
+    <t>Pituatary gland</t>
+  </si>
+  <si>
+    <t>Adrenal glands</t>
+  </si>
+  <si>
+    <t>Pancreas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,24 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -435,13 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,7 +506,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,188 +535,174 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>-152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>5.5</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/QuizQuestions final.xlsx
+++ b/QuizQuestions final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2024_SR_12IT1\Programming\AS91897QuizGameGUI_ShuklaMahit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A54A5A-EED2-42DB-864F-61890074071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4329E2A-CE1E-42F7-B0D6-9C181957DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Gravity</t>
   </si>
   <si>
-    <t>π</t>
-  </si>
-  <si>
     <t>Urea cycle</t>
   </si>
   <si>
@@ -168,6 +165,21 @@
   </si>
   <si>
     <t>Pancreas</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +529,7 @@
     <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +545,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -550,25 +565,31 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -584,8 +605,11 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -601,8 +625,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -618,8 +645,11 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -635,8 +665,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -652,8 +685,11 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -669,8 +705,11 @@
       <c r="E9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -680,45 +719,51 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+      <c r="D10" s="2">
+        <v>2.43562235</v>
       </c>
       <c r="E10">
         <v>-23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/QuizQuestions final.xlsx
+++ b/QuizQuestions final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2024_SR_12IT1\Programming\AS91897QuizGameGUI_ShuklaMahit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4329E2A-CE1E-42F7-B0D6-9C181957DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F2D9D-8E30-4CFA-9E04-975DE5A07FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -158,18 +158,12 @@
     <t>Pineal gland</t>
   </si>
   <si>
-    <t>Pituatary gland</t>
-  </si>
-  <si>
     <t>Adrenal glands</t>
   </si>
   <si>
     <t>Pancreas</t>
   </si>
   <si>
-    <t>Correct</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -180,6 +174,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Correct code</t>
+  </si>
+  <si>
+    <t>Correct answer</t>
+  </si>
+  <si>
+    <t>Pituitary gland</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +530,11 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +551,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,10 +574,13 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -577,19 +588,22 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -606,10 +620,13 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -626,10 +643,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -646,10 +666,13 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -666,10 +689,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -686,10 +712,13 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -706,10 +735,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -726,10 +758,13 @@
         <v>-23</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>2.43562235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -746,24 +781,27 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
